--- a/services/reports/blanks/blanks_LM1.xlsx
+++ b/services/reports/blanks/blanks_LM1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_27.04.2022\blanks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\ORTOS_Production_reports\services\reports\blanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA1896-8D3B-44FB-A41C-1718C1D45091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B7FB2-9748-4FCA-A95F-4EDEA8BEBB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LM1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LM1'!$A$6:$V$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LM1'!$A$6:$V$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="195">
   <si>
     <t>37487МД Бобышка LM Long (собств. разр.) Adin NP (3.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
@@ -577,6 +577,51 @@
   </si>
   <si>
     <t>К/Т</t>
+  </si>
+  <si>
+    <t>Заготовка d10 long</t>
+  </si>
+  <si>
+    <t>Разработка Lenmiriot</t>
+  </si>
+  <si>
+    <t>Biotech Kontact</t>
+  </si>
+  <si>
+    <t>3.6/4.2/4.8/5.4</t>
+  </si>
+  <si>
+    <t>37525МД Бобышка LM Long (собств. разр.) Biotech Kontact 3.6/4.2/4.8/5.4 D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>Для холдера ОРТОС</t>
+  </si>
+  <si>
+    <t>INNO</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>37662МД Бобышка LM Long (собств. разр.) INNO D=10 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>Версяи 1</t>
+  </si>
+  <si>
+    <t>Заготовка d10 short</t>
+  </si>
+  <si>
+    <t>Straumann SynOcta</t>
+  </si>
+  <si>
+    <t>WN (6.5)</t>
+  </si>
+  <si>
+    <t>37610МД Бобышка LM Short (собств. разр.) Straumann SynOcta WN (6.5) D=10 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>37611МД Бобышка LM Long (собств. разр.) Straumann SynOcta WN (6.5) D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
 </sst>
 </file>
@@ -653,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -879,6 +924,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -887,7 +956,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1022,6 +1091,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="header" xfId="2" xr:uid="{C399F527-C8A4-47C1-B92A-2B76E9116466}"/>
@@ -1655,12 +1747,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B76630-71FF-4EE2-88AB-AB9FFEA67B81}">
-  <dimension ref="A1:V231"/>
+  <dimension ref="A1:V236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,17 +3653,33 @@
       <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="30"/>
+      <c r="A67" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="8"/>
@@ -3584,11 +3692,11 @@
       <c r="U67" s="12"/>
       <c r="V67" s="13"/>
     </row>
-    <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+    <row r="68" spans="1:22" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="15" t="s">
         <v>45</v>
       </c>
@@ -3606,15 +3714,15 @@
       <c r="K68" s="19"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="13"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="57"/>
     </row>
     <row r="69" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="44"/>
@@ -8173,8 +8281,8 @@
     <row r="230" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="44"/>
       <c r="B230" s="44"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="44"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="50"/>
       <c r="E230" s="21" t="s">
         <v>158</v>
       </c>
@@ -8189,7 +8297,7 @@
       </c>
       <c r="I230" s="23"/>
       <c r="J230" s="24"/>
-      <c r="K230" s="19"/>
+      <c r="K230" s="51"/>
       <c r="L230" s="20"/>
       <c r="M230" s="20"/>
       <c r="N230" s="8"/>
@@ -8226,9 +8334,188 @@
       <c r="U231" s="12"/>
       <c r="V231" s="13"/>
     </row>
+    <row r="232" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B232" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C232" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D232" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E232" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F232" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G232" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H232" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="20"/>
+      <c r="M232" s="20"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
+      <c r="P232" s="8"/>
+      <c r="Q232" s="8"/>
+      <c r="R232" s="8"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="11"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="13"/>
+    </row>
+    <row r="233" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="44"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="44"/>
+      <c r="D233" s="44"/>
+      <c r="E233" s="25"/>
+      <c r="F233" s="25"/>
+      <c r="G233" s="25"/>
+      <c r="H233" s="25"/>
+      <c r="I233" s="26"/>
+      <c r="J233" s="26"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="8"/>
+      <c r="O233" s="8"/>
+      <c r="P233" s="8"/>
+      <c r="Q233" s="8"/>
+      <c r="R233" s="8"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="11"/>
+      <c r="U233" s="12"/>
+      <c r="V233" s="13"/>
+    </row>
+    <row r="234" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B234" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C234" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D234" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E234" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G234" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H234" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I234" s="17"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="20"/>
+      <c r="M234" s="20"/>
+      <c r="N234" s="8"/>
+      <c r="O234" s="8"/>
+      <c r="P234" s="8"/>
+      <c r="Q234" s="8"/>
+      <c r="R234" s="8"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="11"/>
+      <c r="U234" s="12"/>
+      <c r="V234" s="13"/>
+    </row>
+    <row r="235" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C235" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D235" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E235" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F235" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G235" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H235" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I235" s="23"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="19"/>
+      <c r="L235" s="20"/>
+      <c r="M235" s="20"/>
+      <c r="N235" s="8"/>
+      <c r="O235" s="8"/>
+      <c r="P235" s="8"/>
+      <c r="Q235" s="8"/>
+      <c r="R235" s="8"/>
+      <c r="S235" s="10"/>
+      <c r="T235" s="11"/>
+      <c r="U235" s="12"/>
+      <c r="V235" s="13"/>
+    </row>
+    <row r="236" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="44"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="28"/>
+      <c r="J236" s="28"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="20"/>
+      <c r="M236" s="20"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
+      <c r="Q236" s="8"/>
+      <c r="R236" s="8"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="11"/>
+      <c r="U236" s="12"/>
+      <c r="V236" s="13"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="21">
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="T4:T6"/>
     <mergeCell ref="U4:U6"/>
     <mergeCell ref="V4:V6"/>
@@ -8239,17 +8526,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S4:S6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="E168:E169">
     <cfRule type="duplicateValues" dxfId="34" priority="25"/>
@@ -8317,44 +8593,44 @@
   <conditionalFormatting sqref="E217:E218">
     <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="9" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:E77 E73 E68 E61:E63 E70">
+    <cfRule type="duplicateValues" dxfId="8" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E51">
+    <cfRule type="duplicateValues" dxfId="7" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E40">
+    <cfRule type="duplicateValues" dxfId="6" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="5" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="duplicateValues" dxfId="4" priority="131"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E175:E1048576 E15:E173 E1:E12">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175:E1048576 E1:E13 E15:E173">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E1048576 E1:E13">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="5" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:E77 E73 E67:E68 E61:E63 E70">
-    <cfRule type="duplicateValues" dxfId="4" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E51">
-    <cfRule type="duplicateValues" dxfId="3" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E40">
-    <cfRule type="duplicateValues" dxfId="2" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18">
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="146"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
